--- a/Documents/캡스톤_일정표_수정.xlsx
+++ b/Documents/캡스톤_일정표_수정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\capstone-design_2019\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43AEBC-2121-44B1-9EC3-6DD497D1B608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A542262-396B-47CA-ABD6-3FAEA59F57C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{23FAAC4D-BD8D-495D-A2DF-99B8E27B98E0}"/>
+    <workbookView xWindow="16080" yWindow="6450" windowWidth="21600" windowHeight="12735" xr2:uid="{23FAAC4D-BD8D-495D-A2DF-99B8E27B98E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Related contents acquisition</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,6 +104,100 @@
   </si>
   <si>
     <t>June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kim, Myeong Gyu
+UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nam, Geun Woo
+Server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sung, Ho Joon
+App.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login, Sign-in UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login, Sign-in Functions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diary Functions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diary UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentiment analysis function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server-side scripting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood glucose level function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood glucose level UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medication administration tracking function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diet management function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diet management UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medication administration tracking UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midterm
+Demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final
+Demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midterm
+Exam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement speech recognition function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement translation function</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,14 +229,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -150,12 +236,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -175,8 +255,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,13 +322,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,24 +386,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,17 +410,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,303 +775,769 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607BE8EA-432F-45C4-B72D-21A015449CEA}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="3">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="6">
         <v>7</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="6">
         <v>8</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="6">
         <v>9</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="6">
         <v>10</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="6">
         <v>11</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="6">
         <v>12</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="6">
         <v>13</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="12"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="17" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="25" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="G3:G13"/>
-    <mergeCell ref="N3:N13"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="H3:H13"/>
+  <mergeCells count="20">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="O17:O23"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="I3:I15"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="O3:O15"/>
+    <mergeCell ref="H3:H15"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
